--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1854.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1854.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2817785066626479</v>
+        <v>1.370506167411804</v>
       </c>
       <c r="B1">
-        <v>0.3583866285944639</v>
+        <v>2.729767799377441</v>
       </c>
       <c r="C1">
-        <v>0.5316525124186412</v>
+        <v>3.410092353820801</v>
       </c>
       <c r="D1">
-        <v>1.7771135041386</v>
+        <v>3.412843704223633</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.675902247428894</v>
       </c>
     </row>
   </sheetData>
